--- a/twitter_output.xlsx
+++ b/twitter_output.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megallagher\Desktop\Data Engineering\Twitter Sentiment Analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5B75F0-C889-464F-BF6F-1774EE5FC6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -40,337 +34,328 @@
     <t>Sentiment_Classification</t>
   </si>
   <si>
-    <t>Bleacher Report</t>
-  </si>
-  <si>
-    <t>Adrian Wojnarowski</t>
-  </si>
-  <si>
-    <t>GreenRunsDeep</t>
-  </si>
-  <si>
-    <t>Swipa</t>
-  </si>
-  <si>
-    <t>NBACentral</t>
-  </si>
-  <si>
-    <t>WiltStats</t>
-  </si>
-  <si>
-    <t>Brock Landes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASLER · </t>
-  </si>
-  <si>
-    <t>Palace Pistons</t>
-  </si>
-  <si>
-    <t>Random Philly Athletes</t>
-  </si>
-  <si>
-    <t>Guru</t>
-  </si>
-  <si>
-    <t>Offseason Mamba</t>
-  </si>
-  <si>
-    <t>Scenes From The Spectrum</t>
-  </si>
-  <si>
-    <t>NBA Retweet</t>
-  </si>
-  <si>
-    <t>Boston Sports Gordo</t>
-  </si>
-  <si>
-    <t>The Strickland</t>
-  </si>
-  <si>
-    <t>Derek Bodner</t>
-  </si>
-  <si>
-    <t>ETM_</t>
-  </si>
-  <si>
-    <t>McGuireTipping</t>
-  </si>
-  <si>
-    <t>Al Horfords #2 fan</t>
-  </si>
-  <si>
-    <t>George Michael Perez</t>
-  </si>
-  <si>
-    <t>Ham Sinkie</t>
-  </si>
-  <si>
-    <t>Zane Gibson</t>
+    <t>Player_Categorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBA do Povo </t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Buttcrack Sports ®</t>
+  </si>
+  <si>
+    <t>QuavoJuancho</t>
+  </si>
+  <si>
+    <t>Lisa Reynolds</t>
+  </si>
+  <si>
+    <t>arj</t>
+  </si>
+  <si>
+    <t>Cyrus C.</t>
+  </si>
+  <si>
+    <t>KINGBELLOGH</t>
+  </si>
+  <si>
+    <t>Jeff The Vassell Fan (2-1) (5-2) (5-3) (6-2)</t>
+  </si>
+  <si>
+    <t>Emojis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOC </t>
+  </si>
+  <si>
+    <t>Goaloo</t>
+  </si>
+  <si>
+    <t>hartxx (rhaenyra targaryen’s side nigga)</t>
+  </si>
+  <si>
+    <t>Zach Ciavolella (Cha-vo-lel-la)</t>
+  </si>
+  <si>
+    <t>Brae Flock ✭</t>
+  </si>
+  <si>
+    <t>ClutchPoints</t>
+  </si>
+  <si>
+    <t>Josh Reynolds</t>
+  </si>
+  <si>
+    <t>Ku</t>
+  </si>
+  <si>
+    <t>WiNNit  Decentralized Betting Platform</t>
+  </si>
+  <si>
+    <t>NBA UK</t>
+  </si>
+  <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>Dan Kelley</t>
+  </si>
+  <si>
+    <t>FrapapaBET</t>
+  </si>
+  <si>
+    <t>hoops bot</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t>British Tar Heel</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers  &amp;  Lauren Rosen</t>
   </si>
   <si>
     <t>Jeff Warner</t>
   </si>
   <si>
-    <t>Wilt Chamberlain</t>
-  </si>
-  <si>
-    <t>kat ₀</t>
-  </si>
-  <si>
-    <t>The Mailman</t>
-  </si>
-  <si>
-    <t>Josh Reynolds</t>
-  </si>
-  <si>
-    <t>Basketball Jersey Archive</t>
-  </si>
-  <si>
-    <t>Mike Meech</t>
-  </si>
-  <si>
-    <t>Jae Payne</t>
-  </si>
-  <si>
-    <t>kingtisemedia</t>
-  </si>
-  <si>
-    <t>TheNBAGlobal</t>
-  </si>
-  <si>
-    <t>@BleacherReport</t>
-  </si>
-  <si>
-    <t>@wojespn</t>
-  </si>
-  <si>
-    <t>@CelticsGRD</t>
-  </si>
-  <si>
-    <t>@SwipaCam</t>
-  </si>
-  <si>
-    <t>@TheNBACentral</t>
-  </si>
-  <si>
-    <t>@WiltStats</t>
-  </si>
-  <si>
-    <t>@LandesBrock</t>
-  </si>
-  <si>
-    <t>@aslerrrr</t>
-  </si>
-  <si>
-    <t>@PalaceOfPistons</t>
-  </si>
-  <si>
-    <t>@philly_athletes</t>
-  </si>
-  <si>
-    <t>@DrGuru_</t>
-  </si>
-  <si>
-    <t>@TMambaShow</t>
-  </si>
-  <si>
-    <t>@SFTSPodcast_</t>
-  </si>
-  <si>
-    <t>@RTNBA</t>
-  </si>
-  <si>
-    <t>@BOSSportsGordo</t>
-  </si>
-  <si>
-    <t>@BengoloKante</t>
-  </si>
-  <si>
-    <t>@TheStrickland</t>
-  </si>
-  <si>
-    <t>@DerekBodnerNBA</t>
-  </si>
-  <si>
-    <t>@etm_05</t>
-  </si>
-  <si>
-    <t>@McGuireTipping</t>
-  </si>
-  <si>
-    <t>@EthoIsWatch</t>
-  </si>
-  <si>
-    <t>@GeorgeMikePerez</t>
-  </si>
-  <si>
-    <t>@PhilaUnite76</t>
-  </si>
-  <si>
-    <t>@_ZaneGibson</t>
+    <t>Kacper | 3 of 82</t>
+  </si>
+  <si>
+    <t>Jordan Howenstine</t>
+  </si>
+  <si>
+    <t>Ethan Bock</t>
+  </si>
+  <si>
+    <t>Anthony DiGrazio</t>
+  </si>
+  <si>
+    <t>@NBAdoPovo</t>
+  </si>
+  <si>
+    <t>@sixers</t>
+  </si>
+  <si>
+    <t>@ButtCrackSports</t>
+  </si>
+  <si>
+    <t>@JuanShip98</t>
+  </si>
+  <si>
+    <t>@LiLiReynolds</t>
+  </si>
+  <si>
+    <t>@hooparj</t>
+  </si>
+  <si>
+    <t>@Cyrus_HK_Choi</t>
+  </si>
+  <si>
+    <t>@AnokplimBello</t>
+  </si>
+  <si>
+    <t>@JefftheSpursfan</t>
+  </si>
+  <si>
+    <t>@ProcessEmbiid</t>
+  </si>
+  <si>
+    <t>@manofculturez</t>
+  </si>
+  <si>
+    <t>@Goaloo_sports</t>
+  </si>
+  <si>
+    <t>@luvhartxx</t>
+  </si>
+  <si>
+    <t>@zciavo</t>
+  </si>
+  <si>
+    <t>@BraeDiggs</t>
+  </si>
+  <si>
+    <t>@ClutchPointsApp</t>
+  </si>
+  <si>
+    <t>@JoshReynolds24</t>
+  </si>
+  <si>
+    <t>@KuKhahil</t>
+  </si>
+  <si>
+    <t>@winnitbet</t>
+  </si>
+  <si>
+    <t>@NBAUK</t>
+  </si>
+  <si>
+    <t>@Forbes</t>
+  </si>
+  <si>
+    <t>@DanKelley66</t>
+  </si>
+  <si>
+    <t>@FrapapaOfficial</t>
+  </si>
+  <si>
+    <t>@hoops_bot</t>
+  </si>
+  <si>
+    <t>@blakesilverman</t>
+  </si>
+  <si>
+    <t>@britishtarheel</t>
+  </si>
+  <si>
+    <t>@sixers  &amp;  @LaurenMRosen</t>
   </si>
   <si>
     <t>@JeffWarnerNFL</t>
   </si>
   <si>
-    <t>@Chamberlainotd</t>
-  </si>
-  <si>
-    <t>@m6xey</t>
-  </si>
-  <si>
-    <t>@OBTheMailman</t>
-  </si>
-  <si>
-    <t>@JoshReynolds24</t>
-  </si>
-  <si>
-    <t>@jerseyarchive</t>
-  </si>
-  <si>
-    <t>@meechone</t>
-  </si>
-  <si>
-    <t>@JaePayne</t>
-  </si>
-  <si>
-    <t>@kingtisemedia</t>
-  </si>
-  <si>
-    <t>@TheNBAGlobal</t>
-  </si>
-  <si>
-    <t>August 18</t>
-  </si>
-  <si>
-    <t>Aug 15</t>
-  </si>
-  <si>
-    <t>Aug 16</t>
-  </si>
-  <si>
-    <t>Aug 10</t>
-  </si>
-  <si>
-    <t>Aug 12</t>
-  </si>
-  <si>
-    <t>Aug 17</t>
-  </si>
-  <si>
-    <t>Aug 9</t>
-  </si>
-  <si>
-    <t>Aug 14</t>
-  </si>
-  <si>
-    <t>Aug 11</t>
-  </si>
-  <si>
-    <t>Aug 13</t>
-  </si>
-  <si>
-    <t>On 3/31/1967 Wilt Chamberlain scores 24 points 24 Points32 Rebounds13 Assists48 Minutes 9/13 fg 6/10 ft1 of 87 career Triple Double games1 of 191 career 30+ rebound gamesBoston Celtics 113Philadelphia 76ers 127at Convention Hall#76ers#Celtics#WiltChamberlain</t>
-  </si>
-  <si>
-    <t>“smile if you hate the Philadelphia 76ers”</t>
-  </si>
-  <si>
-    <t>@phillies in the race I’m on board  #philadelphiaeagles up next, and don’t sleep on #philadelphia76ers off-season movies.</t>
-  </si>
-  <si>
-    <t>Ben Simmons and the Brooklyn Nets take on the Philadelphia 76ers on November 22nd… in Philly , per @ScoopB</t>
-  </si>
-  <si>
-    <t>Weird take: The Philadelphia 76ers will go to ECF ATLEAST with their current roster."EASTERN ROCKETS"</t>
-  </si>
-  <si>
-    <t>Celtics will open up the season on October 18th at home vs Philadelphia 76ers.</t>
-  </si>
-  <si>
-    <t>James Harden, De’Anthony Melton, and PJ Tucker are Philadelphia 76ers…</t>
-  </si>
-  <si>
-    <t>Here is the full schedule for the Philadelphia 76ers for the 2022-2023 regular season</t>
-  </si>
-  <si>
-    <t>I think…the Philadelphia 76ers have the 2nd best odds of making it to the NBA Finals out of the East (behind the Milwaukee Bucks). If Joel Embiid stays healthy, James Harden plays like 2020 Harden, Maxey leaps and Tucker and Melton step up…They are going to have a SQUAD.</t>
-  </si>
-  <si>
-    <t>65% OFF SIXERS GEAR, @Fanatics, NBA SPECIAL ENDS TONIGHT! Philly fans, take advantage of Fanatics EXCLUSIVE offer and get up to 65% OFF Sixers gear using THIS PROMO LINK: http://fanatics.93n6tx.net/PHILAUNITE2022 LIMITED SUPPLIES! DEAL ENDS TONIGHT!65% OFF SIXERS GEAR, @Fanatics, NBA SPECIAL ENDS TONIGHT! Philly fans, take advantage of Fanatics EXCLUSIVE offer and get up to 65% OFF Sixers gear using THIS PROMO LINK: http://fanatics.93n6tx.net/PHILAUNITE2022 LIMITED SUPPLIES! DEAL ENDS TONIGHT!</t>
-  </si>
-  <si>
-    <t>What is the goal for the Philadelphia 76ers the next few seasons? I think we can all agree it’s compete for &amp; win an NBA Championship.Trading Tyrese Maxey for Kevin Durant (if the Nets would even do it) absolutely 1000% puts us closer to our ultimate goal. You do it 100/100.</t>
-  </si>
-  <si>
-    <t>These teams got a serious upgrade this offseason  Which one do you think will go the farthest?Portland Trail BlazersBoston CelticsAtlanta HawksNew York KnicksPhiladelphia 76ersMinnesota Timberwolves(via B/R's Andy Bailey)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ersAt Scotiabank Arena:26th October [Game 5]28th October [Game 6]At Wells Fargo Center:19th December [Game 31]31st March [Game 77]Record vs team: 61-42</t>
-  </si>
-  <si>
-    <t>OFICIAL! Opening Night 2022-23: Boston Celtics vs Philadelphia 76ers Golden State Warriors vs LA Lakers18 de octubre. HERE WE GO!</t>
-  </si>
-  <si>
-    <t>All-Time Sixers!#SyracureNationals #Philadelphia76ers</t>
-  </si>
-  <si>
-    <t>Mark your calendarsThe Boston Celtics will play the opening game of the NBA season at TD Garden against the Philadelphia 76ers.Tuesday October 18. @NBAonTNT. Be there.</t>
-  </si>
-  <si>
-    <t>CONFIRMED: Kevin Durant to the Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>THE G PERSPECTIVEepisode 28 ft. @SportsFreezy @LoganPeter9 @nickjwilkBen Simmons wins lawsuit against the Philadelphia 76ersNFL Preseason is underway and we give our dark horses for the regular season/post-season https://youtu.be/gU8d_MjnX_Q https://podcasts.apple.com/us/podcast/the-g-perspective/id1579270806?i=1000576413382…</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers vs. Boston Celtics (Dec 15, 1967)</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers 2022-23 Schedule (1/2):</t>
-  </si>
-  <si>
-    <t>Bought tickets to the 76th game of the 76th NBA season for the Philadelphia 76ers to see my boy Luka Doncic live for the first time</t>
-  </si>
-  <si>
-    <t>Golden State Warriors, Los Angeles Lakers, Boston Celtics, Philadelphia 76ers &amp; Phoenix Suns have the most televised NBA games this upcoming season. Brooklyn Nets nationally televised games were cut in half. That means Kevin Durant will be on one of those 5 teams.</t>
-  </si>
-  <si>
-    <t>The Philadelphia 76ers and New York Knicks will play in MSG on Christmas Day, via @JHarden13.</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers Logo HistoryWhich one's your favorite?  See more teams on https://basketballjerseyarchive.com/logos/</t>
-  </si>
-  <si>
-    <t>The Detroit #Pistons will have one nationally televised game in the 2022-23 season. They will face the Philadelphia 76ers on January 10th at 7:30 PM ET. The game will be broadcasted on TNT. Detroit will have three games broadcasted on NBATV.</t>
-  </si>
-  <si>
-    <t>Report : Kevin Durant has interest in the Philadelphia 76ers , Boston Celtics &amp; The Miami Heat</t>
-  </si>
-  <si>
-    <t>Our guy Jordan Doss got to workout with the Philadelphia 76ers G League Team this morning Proud of Jordan, he’s had a great summer making the All-Star team in @HartSportsAgent camp, working out with some great trainers and organizations Can’t wait to see where he ends up</t>
-  </si>
-  <si>
-    <t>Back PHILADELPHIA 76ERS to WIN the NBA Championships @NBA #NBA #NBAFinals #Basketball</t>
-  </si>
-  <si>
-    <t>ESPN Sources: Ben Simmons and the Philadelphia 76ers have reached a settlement agreement on the grievance the All-Star guard filed to recoup a portion of the nearly $20 million withheld him as a result of his failure to play games in the 2021-2022 season. Story soon.</t>
-  </si>
-  <si>
-    <t>Kevin Durant reportedly views the Philadelphia 76ers and Boston Celtics as ‘desired landing spots,’ per @IanBegley</t>
-  </si>
-  <si>
-    <t>Here is my FULL IN-DEPTH BREAKDOWN of the Philadelphia 76ers 2022-23 schedule. My column:</t>
-  </si>
-  <si>
-    <t>Pritchard would make his Celtics debut on December 15,2020 scoring 17 Points against the Ben Simmons lead Philadelphia 76ers.</t>
-  </si>
-  <si>
-    <t>Sources: Philadelphia 76ers against the New York Knicks at Madison Square Garden added to the NBA’s Christmas Day slate for next season. (Source: this tweet)Christmas in the garden!</t>
-  </si>
-  <si>
-    <t>Andrew Bynum highlights with the Philadelphia 76ers (2012-2013)</t>
+    <t>@k_galda04</t>
+  </si>
+  <si>
+    <t>@AirlessJordan</t>
+  </si>
+  <si>
+    <t>@ethanbock_</t>
+  </si>
+  <si>
+    <t>@AntDiGrazio</t>
+  </si>
+  <si>
+    <t>Oct 19</t>
+  </si>
+  <si>
+    <t>October 24</t>
+  </si>
+  <si>
+    <t>Oct 22</t>
+  </si>
+  <si>
+    <t>Oct 18</t>
+  </si>
+  <si>
+    <t>Oct 21</t>
+  </si>
+  <si>
+    <t>Oct 17</t>
+  </si>
+  <si>
+    <t>Oct 23</t>
+  </si>
+  <si>
+    <t>Oct 20</t>
+  </si>
+  <si>
+    <t>Oct 16</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers James Harden------------------- San Antonio Spurs Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>#Goaloo Results for Oct.20 #NBAPhiladelphia 76ers - Milwaukee Bucks#Giannis scores 21, #Matthews ' 3 sends Bucks past 76ers 90-88Detailshttps://goaloo2.com/basketball/analysis/484580…</t>
+  </si>
+  <si>
+    <t>The Philadelphia 76ers crowd start to boo their own team in the 3rd quarter</t>
+  </si>
+  <si>
+    <t>The Philadelphia 76ers tonight</t>
+  </si>
+  <si>
+    <t>Glenn Rivers coaches the Philadelphia 76ers tonight</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers remain my least favorite NBA franchise.</t>
+  </si>
+  <si>
+    <t>J. Tatami killed it in their first game against PHILADELPHIA 76ERS</t>
+  </si>
+  <si>
+    <t>Real estate investor David Adelman grew up a Philadelphia 76ers fan. Now he’s on the verge of owning a piece of the team. https://trib.al/Mv1j4ez</t>
+  </si>
+  <si>
+    <t>Joe Mazzulla has earned his first career win as an NBA head coach as the Boston Celtics defeat the Philadelphia 76ers 126-117 on opening night</t>
+  </si>
+  <si>
+    <t>Tonight will be no easy task for the Philadelphia 76ers.Ty + Benn through three games.</t>
+  </si>
+  <si>
+    <t>This season, we set a meaningful tone. “I think the big message of training camp was resilience… Seeing what our ancestors had been through, and getting a greater understanding.” -@tobias31“It was powerful, it was moving, it was deep.” -@SniperShake</t>
+  </si>
+  <si>
+    <t>The Philadelphia 76ers start with an extremely disappointing start, going 0-3. It makes sense they lost to the Celtics and Bucks, but the Spurs? The 76ers have one of the worst second units in the league and Doc Rivers runs some of the worst offensive schemes.</t>
+  </si>
+  <si>
+    <t>The San Antonio Spurs defeated the Philadelphia 76ers 114-105 and improved to 2-1 to start the season #NBASaturdays</t>
+  </si>
+  <si>
+    <t>It feels weird saying this as a Philadelphia 76ers fan…I genuinely love our second unit</t>
+  </si>
+  <si>
+    <t>Which player not getting a rookie extension deal done surprised you the most?Rui Hachimura - Washington WizardsMatisse Thybulle - Philadelphia 76ersCam Johnson - Phoenix SunsDarius Bazley - OKC ThunderGrant Williams - Boston CelticsPJ Washington - Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>The Adelaide 36ers have more wins against an NBA team than the Philadelphia 76ers so far this season</t>
+  </si>
+  <si>
+    <t>The Philadelphia 76ersThe Philadelphia Phillies The Philadelphia Eagles The Philadelphia Carter Hart’s</t>
+  </si>
+  <si>
+    <t>20 points from Devin Vassell in 7-9 FG in the first half against the Philadelphia 76ers. He's him.</t>
+  </si>
+  <si>
+    <t>The Los Angeles Lakers and Philadelphia 76ers both start the season 0-3</t>
+  </si>
+  <si>
+    <t>Glenn Rivers coaches the Philadelphia 76ers today</t>
+  </si>
+  <si>
+    <t>REPORT: The NBA is investigating the Philadelphia 76ers for tanking for projected first overall pick Victor Wembanyama, per numerous sources.</t>
+  </si>
+  <si>
+    <t>Philadelphia Phillies...World Series bound Philadelphia Eagles.....6-0Philadelphia Union......Advance in their playoffsPhiladelphia Flyers......Still unbeaten Philadelphia 76ers......Currently on punishment</t>
+  </si>
+  <si>
+    <t>The Philadelphia 76ers agree with thisreal NBA teams are 0-3 btw</t>
+  </si>
+  <si>
+    <t>Encerrado:Boston Celtics (1-0) 126 x 117 (0-1) Philadelphia 76ersBOS Jayson Tatum: 35PTS/12REB/4AST/1STL/1BLKJaylen Brown: 35PTS/3REB/2AST/2STL/1BLKPHI James Harden: 35PTS/8REB/7ASTJoel Embiid: 26PTS/15REB/5AST/1BLK#NBA</t>
+  </si>
+  <si>
+    <t>HUGE THURSDAY SALE, @Fanatics, UP TO 65% OFF 76ERS GEAR!  76ERS FANS Get up to 65% OFF on your team’s gear today at Fanatics using THIS PROMO LINK: http://fanatics.93n6tx.net/76ERSSALE DEAL ENDS SOON!HUGE THURSDAY SALE, @Fanatics, UP TO 65% OFF 76ERS GEAR!  76ERS FANS Get up to 65% OFF on your team’s gear today at Fanatics using THIS PROMO LINK: https://fanatics.93n6tx.net/76ERSSALE DEAL ENDS SOON!</t>
+  </si>
+  <si>
+    <t>Starting Lineup Payroll:Philadelphia 76ers - $117,400,00San Antonio Spurs - $24,400,00Tonight’s score:Philadelphia 76ers - 105San Antonio Spurs - 114</t>
+  </si>
+  <si>
+    <t>Prediction and WiNNit! #6  NBA 2022-23 Season  Indiana Pacers  Philadelphia 76ers Mon, October 24th, 7:00 PM ESTThrough three games, Philadelphia 76ers have far more questions than answers.  Drop your answer here!https://app.quest3.xyz/quest/698783877027717481…#WiNNit</t>
+  </si>
+  <si>
+    <t>“We’re going to have to continue to keep sacrificing, keep working, and keep getting better.”: GAMEDAY REPORT | @NJMIns</t>
+  </si>
+  <si>
+    <t>People keep tweeting Dan Campbells record as the Lions coach like he took over a team that was trying to win. Tweeting Dan Campbells record would be the equivalent to tweeting Brett Browns record as the Philadelphia 76ers HC the first three years.</t>
+  </si>
+  <si>
+    <t>𝗢𝗡 𝗧𝗛𝗜𝗦 𝗗𝗔𝗬!22 years ago, @mrvincecarter15 and  Toronto Raptors were joined by Philadelphia 76ers for a game in Chapel Hill.VC dropped 38 points in his return to the Dean Smith Center, including this windmill!George Lynch played for the Sixers.#CarolinaFamily</t>
+  </si>
+  <si>
+    <t>The Philadelphia 76ers will be looking to break a three-game losing streak when hosting the Indiana Pacers later tonight.Use the code in the image below to bet http://bit.ly/3DryHbT#FrapapaBET</t>
+  </si>
+  <si>
+    <t>Unbeaten teams after one week of NBA:Utah JazzPortland Trail BlazersWinless teams:LA LakersPhiladelphia 76ers</t>
+  </si>
+  <si>
+    <t>final.  @cryptocom</t>
+  </si>
+  <si>
+    <t>The Philadelphia 76ers have shot just 28/89 (31.5%) from three point range through three games this season.  A nightmare start for Philly. 0-3.</t>
   </si>
   <si>
     <t>Neutral</t>
@@ -380,13 +365,28 @@
   </si>
   <si>
     <t>Positive</t>
+  </si>
+  <si>
+    <t>Harden</t>
+  </si>
+  <si>
+    <t>No Categorization</t>
+  </si>
+  <si>
+    <t>Rivers</t>
+  </si>
+  <si>
+    <t>Thybulle</t>
+  </si>
+  <si>
+    <t>Embiid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,14 +449,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -503,7 +495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,27 +527,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,24 +561,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -780,23 +736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.36328125" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6328125" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,54 +762,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F3">
-        <v>-0.57189999999999996</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="H3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -870,22 +826,25 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -893,22 +852,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="H5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -916,22 +878,25 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F6">
-        <v>-0.1779</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="H6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -939,22 +904,25 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-0.357</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="H7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -962,22 +930,25 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>-0.6705</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -985,22 +956,25 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.3182</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="H9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1008,22 +982,25 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F10">
-        <v>0.88600000000000001</v>
+        <v>0.2023</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="H10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1031,22 +1008,25 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F11">
-        <v>0.88160000000000005</v>
+        <v>-0.3412</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1054,22 +1034,25 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F12">
-        <v>0.74299999999999999</v>
+        <v>0.765</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="H12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1077,22 +1060,25 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F13">
-        <v>-7.7200000000000005E-2</v>
+        <v>-0.9647</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1100,22 +1086,25 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F14">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="H14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1123,22 +1112,25 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.5423</v>
       </c>
       <c r="G15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1146,42 +1138,51 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.2263</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="H16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17">
-        <v>0.34</v>
+        <v>0.6115</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="H17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1189,22 +1190,25 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1212,22 +1216,25 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F19">
-        <v>0.42149999999999999</v>
+        <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="H19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1235,22 +1242,25 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="H20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1258,22 +1268,25 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="H21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1281,22 +1294,25 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="H22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1304,22 +1320,25 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F23">
-        <v>-0.2732</v>
+        <v>-0.4939</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="H23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1327,22 +1346,25 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F24">
-        <v>0.34</v>
+        <v>0.3612</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="H24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1350,22 +1372,25 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F25">
-        <v>0.45879999999999999</v>
+        <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="H25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1373,22 +1398,25 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.6371</v>
       </c>
       <c r="G26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="H26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1396,22 +1424,25 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F27">
-        <v>0.45879999999999999</v>
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="H27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1419,22 +1450,25 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F28">
-        <v>0.90620000000000001</v>
+        <v>-0.3987</v>
       </c>
       <c r="G28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="H28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1442,22 +1476,25 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F29">
-        <v>0.8286</v>
+        <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="H29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1465,22 +1502,25 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F30">
-        <v>-0.1027</v>
+        <v>0.743</v>
       </c>
       <c r="G30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="H30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1488,22 +1528,25 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.4559</v>
       </c>
       <c r="G31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="H31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1511,22 +1554,25 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>-0.3818</v>
       </c>
       <c r="G32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="H32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1534,22 +1580,25 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
       </c>
       <c r="E33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
         <v>114</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1557,22 +1606,25 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="H34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1580,19 +1632,22 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="H35" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
